--- a/doc/points.xlsx
+++ b/doc/points.xlsx
@@ -1,35 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10926"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tluscre1/Documents/Studium.Local/DL4G/repo/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FE3E68-9509-C844-8BBE-8BA0D1D8DA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F80217-4D4E-694F-8EB1-51DA652AE182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{926FC833-A2F6-DE4D-BF4A-C5A5AD5B3EA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$11:$K$11</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$13:$K$13</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$12:$K$12</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$8:$K$8</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$10:$K$10</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$12:$K$12</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$C$11:$K$11</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$C$8:$K$8</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$C$10:$K$10</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$C$12:$K$12</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$C$12:$K$12</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$C$13:$K$13</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -116,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,6 +117,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -159,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,6 +162,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3101,10 +3100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA812EC-F24B-6845-AD93-AB5370D4E88D}">
-  <dimension ref="A3:M38"/>
+  <dimension ref="A3:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:H37"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3858,6 +3857,814 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C41" s="1">
+        <v>-9</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-8</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-7</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-6</v>
+      </c>
+      <c r="G41" s="1">
+        <v>-5</v>
+      </c>
+      <c r="H41" s="1">
+        <v>-4</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-3</v>
+      </c>
+      <c r="J41" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M41" s="1">
+        <f>SUM(C41:K41)</f>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C43" s="1">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-8</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-7</v>
+      </c>
+      <c r="F43" s="1">
+        <v>-6</v>
+      </c>
+      <c r="G43" s="1">
+        <v>-5</v>
+      </c>
+      <c r="H43" s="1">
+        <v>-4</v>
+      </c>
+      <c r="I43" s="1">
+        <v>-3</v>
+      </c>
+      <c r="J43" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M43" s="1">
+        <f>SUM(C43:K43)</f>
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C45" s="1">
+        <v>9</v>
+      </c>
+      <c r="D45" s="1">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-7</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-6</v>
+      </c>
+      <c r="G45" s="1">
+        <v>-5</v>
+      </c>
+      <c r="H45" s="1">
+        <v>-4</v>
+      </c>
+      <c r="I45" s="1">
+        <v>-3</v>
+      </c>
+      <c r="J45" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M45" s="1">
+        <f>SUM(C45:K45)</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C47" s="1">
+        <v>9</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8</v>
+      </c>
+      <c r="E47" s="1">
+        <v>7</v>
+      </c>
+      <c r="F47" s="1">
+        <v>-6</v>
+      </c>
+      <c r="G47" s="1">
+        <v>-5</v>
+      </c>
+      <c r="H47" s="1">
+        <v>-4</v>
+      </c>
+      <c r="I47" s="1">
+        <v>-3</v>
+      </c>
+      <c r="J47" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M47" s="1">
+        <f>SUM(C47:K47)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C49" s="1">
+        <v>9</v>
+      </c>
+      <c r="D49" s="1">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1">
+        <v>7</v>
+      </c>
+      <c r="F49" s="1">
+        <v>6</v>
+      </c>
+      <c r="G49" s="1">
+        <v>-5</v>
+      </c>
+      <c r="H49" s="1">
+        <v>-4</v>
+      </c>
+      <c r="I49" s="1">
+        <v>-3</v>
+      </c>
+      <c r="J49" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M49" s="1">
+        <f>SUM(C49:K49)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C51" s="1">
+        <v>9</v>
+      </c>
+      <c r="D51" s="1">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1">
+        <v>7</v>
+      </c>
+      <c r="F51" s="1">
+        <v>6</v>
+      </c>
+      <c r="G51" s="1">
+        <v>5</v>
+      </c>
+      <c r="H51" s="1">
+        <v>-4</v>
+      </c>
+      <c r="I51" s="1">
+        <v>-3</v>
+      </c>
+      <c r="J51" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M51" s="1">
+        <f>SUM(C51:K51)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C53" s="1">
+        <v>9</v>
+      </c>
+      <c r="D53" s="1">
+        <v>8</v>
+      </c>
+      <c r="E53" s="1">
+        <v>7</v>
+      </c>
+      <c r="F53" s="1">
+        <v>6</v>
+      </c>
+      <c r="G53" s="1">
+        <v>5</v>
+      </c>
+      <c r="H53" s="1">
+        <v>4</v>
+      </c>
+      <c r="I53" s="1">
+        <v>-3</v>
+      </c>
+      <c r="J53" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K53" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M53" s="1">
+        <f>SUM(C53:K53)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C55" s="1">
+        <v>9</v>
+      </c>
+      <c r="D55" s="1">
+        <v>8</v>
+      </c>
+      <c r="E55" s="1">
+        <v>7</v>
+      </c>
+      <c r="F55" s="1">
+        <v>6</v>
+      </c>
+      <c r="G55" s="1">
+        <v>5</v>
+      </c>
+      <c r="H55" s="1">
+        <v>4</v>
+      </c>
+      <c r="I55" s="1">
+        <v>3</v>
+      </c>
+      <c r="J55" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K55" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M55" s="1">
+        <f>SUM(C55:K55)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3">
+        <v>1</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C57" s="1">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1">
+        <v>7</v>
+      </c>
+      <c r="F57" s="1">
+        <v>6</v>
+      </c>
+      <c r="G57" s="1">
+        <v>5</v>
+      </c>
+      <c r="H57" s="1">
+        <v>4</v>
+      </c>
+      <c r="I57" s="1">
+        <v>3</v>
+      </c>
+      <c r="J57" s="1">
+        <v>2</v>
+      </c>
+      <c r="K57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M57" s="1">
+        <f>SUM(C57:K57)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C59" s="1">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1">
+        <v>7</v>
+      </c>
+      <c r="F59" s="1">
+        <v>6</v>
+      </c>
+      <c r="G59" s="1">
+        <v>5</v>
+      </c>
+      <c r="H59" s="1">
+        <v>4</v>
+      </c>
+      <c r="I59" s="1">
+        <v>3</v>
+      </c>
+      <c r="J59" s="1">
+        <v>2</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1">
+        <f>SUM(C59:K59)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C61" s="1">
+        <v>9</v>
+      </c>
+      <c r="D61" s="1">
+        <v>-8</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-7</v>
+      </c>
+      <c r="F61" s="1">
+        <v>-6</v>
+      </c>
+      <c r="G61" s="1">
+        <v>5</v>
+      </c>
+      <c r="H61" s="1">
+        <v>-4</v>
+      </c>
+      <c r="I61" s="1">
+        <v>3</v>
+      </c>
+      <c r="J61" s="1">
+        <v>2</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1">
+        <f>SUM(C61:K61)</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C68" s="6"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
